--- a/Exc4/Роли_и_полномочия_k8s.xlsx
+++ b/Exc4/Роли_и_полномочия_k8s.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">pod-writer</t>
   </si>
   <si>
-    <t xml:space="preserve">pods: create, update, patch</t>
+    <t xml:space="preserve">pods: create, update, patch, get</t>
   </si>
   <si>
     <t xml:space="preserve">DevOps-инженеры</t>
@@ -209,44 +209,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,97 +506,97 @@
   <dimension ref="C1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="97.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
